--- a/spreadsheets/Zoe.xlsx
+++ b/spreadsheets/Zoe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A96F1A-2D7F-49A3-87D4-249C7E6D6722}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC672B23-5C17-4750-A875-FB957C4C5C7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t>id</t>
   </si>
@@ -312,9 +312,6 @@
     <t xml:space="preserve">This matchup is hard especially if she takes cleanse (which she should). Avoid her Q's at all cost and be wary of her strong level 2 powerspike. Also be careful of recklessly ulting because if she lands a Q on you, you will likely have to burn a sum or you will die. </t>
   </si>
   <si>
-    <t xml:space="preserve">Hold your E for when he dashes onto you as it's a gaurenteed bubble. </t>
-  </si>
-  <si>
     <t>Bully fizz hard at level 1/2 and Zone him away from the minion wave. Throwing Q forward -&gt; Autoattacking -&gt; Reactivating Q towards Fizz -&gt; Autoattacking again is a very potent level 1 combo! This lane becomes near impossible at level 6 unless you get a lead early game so play very safe past level 6.</t>
   </si>
   <si>
@@ -324,12 +321,6 @@
     <t>Beware of Irelia's level 6 all-in potential and bully her hard early on.</t>
   </si>
   <si>
-    <t>Another lane where you must bully him extremely hard and zone him away from minions before he hits level 6. A good kassadin will take legend tenacity and go mercury treads if he is losing lane and once he gets a little bit tanky, this matchup becomes extremely difficult so take advantage before you both recall for the first tim.</t>
-  </si>
-  <si>
-    <t>Save your bubble for when she shunpos to a daggar and poke her heavy level 1. If you land your bubble you win the fight but if you miss you will probably die.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Be careful of leblanc's level 2 powerspike and consider taking cleanse in this matchup or rushing merc treads depending on if the enemy jungler has CC as well. Save your bubble for her W! </t>
   </si>
   <si>
@@ -357,12 +348,6 @@
     <t>Cleanse is a must take here</t>
   </si>
   <si>
-    <t>Cleanse is reccommended here</t>
-  </si>
-  <si>
-    <t>Probably my least favorite matchup of all. If you bait his windwall and sleep him, you win the trades but otherwise it is extremely difficult. If you sleep him and he winwall's as he's falling asleep, throw your Q to the side as to go around it.</t>
-  </si>
-  <si>
     <t>IMO Zoe's easiest matchup. His pool CANNOT block a Q if you put him to sleep as the pool's duration is lower than the sleep.</t>
   </si>
   <si>
@@ -373,13 +358,34 @@
   </si>
   <si>
     <t>Follow Erick Dota on Twitch and Youtube for high level mid content</t>
+  </si>
+  <si>
+    <t>discord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hold your E for when he dashes onto you as it's a guaranteed bubble. </t>
+  </si>
+  <si>
+    <t>Save your bubble for when she shunpos to a dagger and poke her heavy level 1. If you land your bubble you win the fight but if you miss you will probably die.</t>
+  </si>
+  <si>
+    <t>Cleanse is recommended here</t>
+  </si>
+  <si>
+    <t>Probably my least favorite matchup of all. If you bait his windwall and sleep him, you win the trades but otherwise it is extremely difficult. If you sleep him and he windwall's as he's falling asleep, throw your Q to the side as to go around it.</t>
+  </si>
+  <si>
+    <t>Another lane where you must bully him extremely hard and zone him away from minions before he hits level 6. A good kassadin will take legend tenacity and go mercury treads if he is losing lane and once he gets a little bit tanky, this matchup becomes extremely difficult so take advantage before you both recall for the first time.</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/6itYVf3.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +425,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -441,13 +455,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -740,7 +755,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -830,29 +845,37 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
+      <c r="A8" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1850,10 +1873,11 @@
     <hyperlink ref="B5" r:id="rId2" xr:uid="{2F4F945F-8B77-4ED5-A1F8-0480C751A0F6}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{6A43050D-AE5B-4926-A319-A59746A46CC1}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{F4CE5A65-5708-4064-A885-3C75B66E9A26}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{47942CDD-CD41-4B29-9B19-116CA9C3C2D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1861,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1906,7 +1930,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>26</v>
@@ -2023,7 +2047,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2034,7 +2058,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2053,7 +2077,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2064,7 +2088,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2082,8 +2106,8 @@
       <c r="B19">
         <v>8</v>
       </c>
-      <c r="C19" t="s">
-        <v>92</v>
+      <c r="C19" s="5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2093,8 +2117,8 @@
       <c r="B20">
         <v>8</v>
       </c>
-      <c r="C20" t="s">
-        <v>93</v>
+      <c r="C20" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2113,7 +2137,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2124,7 +2148,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2143,7 +2167,7 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2154,7 +2178,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2165,7 +2189,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2176,7 +2200,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2187,7 +2211,7 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2230,7 +2254,7 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2257,7 +2281,7 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2267,8 +2291,8 @@
       <c r="B38">
         <v>4</v>
       </c>
-      <c r="C38" t="s">
-        <v>103</v>
+      <c r="C38" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2295,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2313,8 +2337,8 @@
       <c r="B43">
         <v>9</v>
       </c>
-      <c r="C43" t="s">
-        <v>104</v>
+      <c r="C43" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2325,7 +2349,7 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
